--- a/resultados/Venda de Drone/Sem SPAD 1 Drones/vel20/field_16ha_100ha_6%_6m_0_TSP/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Sem SPAD 1 Drones/vel20/field_16ha_100ha_6%_6m_0_TSP/Planilha_Unificada.xlsx
@@ -3052,28 +3052,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>518.4862329247196</v>
+        <v>714.188327494125</v>
       </c>
       <c r="AB2" t="n">
-        <v>709.415737885833</v>
+        <v>977.1839774427651</v>
       </c>
       <c r="AC2" t="n">
-        <v>641.71009553325</v>
+        <v>883.9229101219529</v>
       </c>
       <c r="AD2" t="n">
-        <v>518486.2329247196</v>
+        <v>714188.327494125</v>
       </c>
       <c r="AE2" t="n">
-        <v>709415.737885833</v>
+        <v>977183.9774427651</v>
       </c>
       <c r="AF2" t="n">
         <v>4.155101776541196e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>38</v>
+        <v>37.76041666666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>641710.0955332499</v>
+        <v>883922.9101219529</v>
       </c>
     </row>
     <row r="3">
@@ -3158,28 +3158,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>405.3102804677666</v>
+        <v>552.0707797152875</v>
       </c>
       <c r="AB3" t="n">
-        <v>554.5634067635939</v>
+        <v>755.3675964503232</v>
       </c>
       <c r="AC3" t="n">
-        <v>501.6366535567054</v>
+        <v>683.2763732101835</v>
       </c>
       <c r="AD3" t="n">
-        <v>405310.2804677666</v>
+        <v>552070.7797152875</v>
       </c>
       <c r="AE3" t="n">
-        <v>554563.4067635939</v>
+        <v>755367.5964503231</v>
       </c>
       <c r="AF3" t="n">
         <v>5.211023901298265e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>31</v>
+        <v>30.13020833333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>501636.6535567055</v>
+        <v>683276.3732101835</v>
       </c>
     </row>
     <row r="4">
@@ -3264,28 +3264,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>363.7033257226021</v>
+        <v>510.4628139402657</v>
       </c>
       <c r="AB4" t="n">
-        <v>497.6349357119644</v>
+        <v>698.4377420630394</v>
       </c>
       <c r="AC4" t="n">
-        <v>450.1413558826325</v>
+        <v>631.7798242240697</v>
       </c>
       <c r="AD4" t="n">
-        <v>363703.3257226021</v>
+        <v>510462.8139402657</v>
       </c>
       <c r="AE4" t="n">
-        <v>497634.9357119644</v>
+        <v>698437.7420630394</v>
       </c>
       <c r="AF4" t="n">
         <v>5.613865424236406e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>28</v>
+        <v>27.96875</v>
       </c>
       <c r="AH4" t="n">
-        <v>450141.3558826325</v>
+        <v>631779.8242240697</v>
       </c>
     </row>
     <row r="5">
@@ -3370,28 +3370,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>357.6570169670424</v>
+        <v>484.8746390926473</v>
       </c>
       <c r="AB5" t="n">
-        <v>489.3621093282912</v>
+        <v>663.4268723659254</v>
       </c>
       <c r="AC5" t="n">
-        <v>442.6580764380324</v>
+        <v>600.1103427927841</v>
       </c>
       <c r="AD5" t="n">
-        <v>357657.0169670423</v>
+        <v>484874.6390926473</v>
       </c>
       <c r="AE5" t="n">
-        <v>489362.1093282913</v>
+        <v>663426.8723659255</v>
       </c>
       <c r="AF5" t="n">
         <v>5.80769222521921e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>28</v>
+        <v>27.03125</v>
       </c>
       <c r="AH5" t="n">
-        <v>442658.0764380324</v>
+        <v>600110.3427927841</v>
       </c>
     </row>
     <row r="6">
@@ -3476,28 +3476,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>343.6402162543123</v>
+        <v>480.5438633939231</v>
       </c>
       <c r="AB6" t="n">
-        <v>470.1837042155294</v>
+        <v>657.5013139945916</v>
       </c>
       <c r="AC6" t="n">
-        <v>425.3100313921719</v>
+        <v>594.750311395837</v>
       </c>
       <c r="AD6" t="n">
-        <v>343640.2162543123</v>
+        <v>480543.8633939231</v>
       </c>
       <c r="AE6" t="n">
-        <v>470183.7042155294</v>
+        <v>657501.3139945916</v>
       </c>
       <c r="AF6" t="n">
         <v>5.944082166333664e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>27</v>
+        <v>26.40625</v>
       </c>
       <c r="AH6" t="n">
-        <v>425310.0313921719</v>
+        <v>594750.311395837</v>
       </c>
     </row>
     <row r="7">
@@ -3582,28 +3582,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>329.8880278833173</v>
+        <v>466.8589948306326</v>
       </c>
       <c r="AB7" t="n">
-        <v>451.3673533826022</v>
+        <v>638.7770730925058</v>
       </c>
       <c r="AC7" t="n">
-        <v>408.289486673825</v>
+        <v>577.8130857658091</v>
       </c>
       <c r="AD7" t="n">
-        <v>329888.0278833173</v>
+        <v>466858.9948306326</v>
       </c>
       <c r="AE7" t="n">
-        <v>451367.3533826022</v>
+        <v>638777.0730925058</v>
       </c>
       <c r="AF7" t="n">
         <v>6.048649796839002e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>26</v>
+        <v>25.9375</v>
       </c>
       <c r="AH7" t="n">
-        <v>408289.486673825</v>
+        <v>577813.0857658091</v>
       </c>
     </row>
     <row r="8">
@@ -3688,28 +3688,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>327.6062423025461</v>
+        <v>464.5772092498614</v>
       </c>
       <c r="AB8" t="n">
-        <v>448.2453136857158</v>
+        <v>635.6550333956195</v>
       </c>
       <c r="AC8" t="n">
-        <v>405.4654100637993</v>
+        <v>574.9890091557834</v>
       </c>
       <c r="AD8" t="n">
-        <v>327606.2423025462</v>
+        <v>464577.2092498614</v>
       </c>
       <c r="AE8" t="n">
-        <v>448245.3136857158</v>
+        <v>635655.0333956195</v>
       </c>
       <c r="AF8" t="n">
         <v>6.08390747052524e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>26</v>
+        <v>25.80729166666667</v>
       </c>
       <c r="AH8" t="n">
-        <v>405465.4100637993</v>
+        <v>574989.0091557833</v>
       </c>
     </row>
     <row r="9">
@@ -3794,28 +3794,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>324.7953119453053</v>
+        <v>452.0460884598339</v>
       </c>
       <c r="AB9" t="n">
-        <v>444.3992747614437</v>
+        <v>618.5094010966717</v>
       </c>
       <c r="AC9" t="n">
-        <v>401.9864316965102</v>
+        <v>559.4797319394011</v>
       </c>
       <c r="AD9" t="n">
-        <v>324795.3119453053</v>
+        <v>452046.0884598339</v>
       </c>
       <c r="AE9" t="n">
-        <v>444399.2747614437</v>
+        <v>618509.4010966717</v>
       </c>
       <c r="AF9" t="n">
         <v>6.152373653956977e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>26</v>
+        <v>25.52083333333333</v>
       </c>
       <c r="AH9" t="n">
-        <v>401986.4316965102</v>
+        <v>559479.731939401</v>
       </c>
     </row>
     <row r="10">
@@ -3900,28 +3900,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>324.9868284319621</v>
+        <v>452.2376049464905</v>
       </c>
       <c r="AB10" t="n">
-        <v>444.6613160675985</v>
+        <v>618.7714424028264</v>
       </c>
       <c r="AC10" t="n">
-        <v>402.2234641481828</v>
+        <v>559.7167643910736</v>
       </c>
       <c r="AD10" t="n">
-        <v>324986.8284319621</v>
+        <v>452237.6049464906</v>
       </c>
       <c r="AE10" t="n">
-        <v>444661.3160675985</v>
+        <v>618771.4424028264</v>
       </c>
       <c r="AF10" t="n">
         <v>6.149962872850225e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>26</v>
+        <v>25.52083333333333</v>
       </c>
       <c r="AH10" t="n">
-        <v>402223.4641481828</v>
+        <v>559716.7643910736</v>
       </c>
     </row>
   </sheetData>
@@ -4197,28 +4197,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>441.7944793365977</v>
+        <v>615.9760332009821</v>
       </c>
       <c r="AB2" t="n">
-        <v>604.4826972251849</v>
+        <v>842.805583570258</v>
       </c>
       <c r="AC2" t="n">
-        <v>546.7917169988065</v>
+        <v>762.3694015593777</v>
       </c>
       <c r="AD2" t="n">
-        <v>441794.4793365977</v>
+        <v>615976.0332009821</v>
       </c>
       <c r="AE2" t="n">
-        <v>604482.6972251849</v>
+        <v>842805.583570258</v>
       </c>
       <c r="AF2" t="n">
         <v>5.083708019620524e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>34</v>
+        <v>33.77604166666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>546791.7169988065</v>
+        <v>762369.4015593777</v>
       </c>
     </row>
     <row r="3">
@@ -4303,28 +4303,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>364.3482245431651</v>
+        <v>499.8085928369743</v>
       </c>
       <c r="AB3" t="n">
-        <v>498.5173147291868</v>
+        <v>683.8601667184544</v>
       </c>
       <c r="AC3" t="n">
-        <v>450.939521884878</v>
+        <v>618.5935122106165</v>
       </c>
       <c r="AD3" t="n">
-        <v>364348.2245431651</v>
+        <v>499808.5928369743</v>
       </c>
       <c r="AE3" t="n">
-        <v>498517.3147291868</v>
+        <v>683860.1667184543</v>
       </c>
       <c r="AF3" t="n">
         <v>6.072963347907666e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>29</v>
+        <v>28.28125</v>
       </c>
       <c r="AH3" t="n">
-        <v>450939.521884878</v>
+        <v>618593.5122106165</v>
       </c>
     </row>
     <row r="4">
@@ -4409,28 +4409,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>335.7416231947754</v>
+        <v>471.2351458775082</v>
       </c>
       <c r="AB4" t="n">
-        <v>459.3765007301384</v>
+        <v>644.7647160169995</v>
       </c>
       <c r="AC4" t="n">
-        <v>415.5342522394213</v>
+        <v>583.2292764532988</v>
       </c>
       <c r="AD4" t="n">
-        <v>335741.6231947754</v>
+        <v>471235.1458775082</v>
       </c>
       <c r="AE4" t="n">
-        <v>459376.5007301384</v>
+        <v>644764.7160169994</v>
       </c>
       <c r="AF4" t="n">
         <v>6.44582179908662e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>27</v>
+        <v>26.640625</v>
       </c>
       <c r="AH4" t="n">
-        <v>415534.2522394213</v>
+        <v>583229.2764532987</v>
       </c>
     </row>
     <row r="5">
@@ -4515,28 +4515,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>320.7573808820612</v>
+        <v>456.2167381460131</v>
       </c>
       <c r="AB5" t="n">
-        <v>438.8743993397671</v>
+        <v>624.2158679933804</v>
       </c>
       <c r="AC5" t="n">
-        <v>396.9888426308671</v>
+        <v>564.6415816445646</v>
       </c>
       <c r="AD5" t="n">
-        <v>320757.3808820611</v>
+        <v>456216.7381460131</v>
       </c>
       <c r="AE5" t="n">
-        <v>438874.3993397671</v>
+        <v>624215.8679933804</v>
       </c>
       <c r="AF5" t="n">
         <v>6.647748324999243e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>26</v>
+        <v>25.83333333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>396988.842630867</v>
+        <v>564641.5816445645</v>
       </c>
     </row>
     <row r="6">
@@ -4621,28 +4621,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>316.8437856638562</v>
+        <v>442.5894393887764</v>
       </c>
       <c r="AB6" t="n">
-        <v>433.5196457065834</v>
+        <v>605.5703966397381</v>
       </c>
       <c r="AC6" t="n">
-        <v>392.1451391689905</v>
+        <v>547.7756079078305</v>
       </c>
       <c r="AD6" t="n">
-        <v>316843.7856638562</v>
+        <v>442589.4393887764</v>
       </c>
       <c r="AE6" t="n">
-        <v>433519.6457065834</v>
+        <v>605570.3966397381</v>
       </c>
       <c r="AF6" t="n">
         <v>6.754053210620125e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>26</v>
+        <v>25.41666666666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>392145.1391689905</v>
+        <v>547775.6079078305</v>
       </c>
     </row>
     <row r="7">
@@ -4727,28 +4727,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>314.3981337272121</v>
+        <v>440.1437874521323</v>
       </c>
       <c r="AB7" t="n">
-        <v>430.1733968323183</v>
+        <v>602.224147765473</v>
       </c>
       <c r="AC7" t="n">
-        <v>389.1182515907955</v>
+        <v>544.7487203296355</v>
       </c>
       <c r="AD7" t="n">
-        <v>314398.1337272121</v>
+        <v>440143.7874521323</v>
       </c>
       <c r="AE7" t="n">
-        <v>430173.3968323183</v>
+        <v>602224.147765473</v>
       </c>
       <c r="AF7" t="n">
         <v>6.828440252171215e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>26</v>
+        <v>25.15625</v>
       </c>
       <c r="AH7" t="n">
-        <v>389118.2515907955</v>
+        <v>544748.7203296355</v>
       </c>
     </row>
     <row r="8">
@@ -4833,28 +4833,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>314.5743436967003</v>
+        <v>440.3199974216205</v>
       </c>
       <c r="AB8" t="n">
-        <v>430.4144950864073</v>
+        <v>602.4652460195621</v>
       </c>
       <c r="AC8" t="n">
-        <v>389.3363397658977</v>
+        <v>544.9668085047377</v>
       </c>
       <c r="AD8" t="n">
-        <v>314574.3436967003</v>
+        <v>440319.9974216205</v>
       </c>
       <c r="AE8" t="n">
-        <v>430414.4950864073</v>
+        <v>602465.2460195621</v>
       </c>
       <c r="AF8" t="n">
         <v>6.827517008747708e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>26</v>
+        <v>25.15625</v>
       </c>
       <c r="AH8" t="n">
-        <v>389336.3397658977</v>
+        <v>544966.8085047378</v>
       </c>
     </row>
   </sheetData>
@@ -5130,28 +5130,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>306.262322949935</v>
+        <v>437.2049018873255</v>
       </c>
       <c r="AB2" t="n">
-        <v>419.0416216002081</v>
+        <v>598.203034881224</v>
       </c>
       <c r="AC2" t="n">
-        <v>379.0488773632932</v>
+        <v>541.1113768153917</v>
       </c>
       <c r="AD2" t="n">
-        <v>306262.322949935</v>
+        <v>437204.9018873255</v>
       </c>
       <c r="AE2" t="n">
-        <v>419041.6216002082</v>
+        <v>598203.0348812239</v>
       </c>
       <c r="AF2" t="n">
         <v>8.98040145001602e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>27</v>
+        <v>26.69270833333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>379048.8773632933</v>
+        <v>541111.3768153917</v>
       </c>
     </row>
     <row r="3">
@@ -5236,28 +5236,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>278.0104983616403</v>
+        <v>399.5975955593042</v>
       </c>
       <c r="AB3" t="n">
-        <v>380.3862288159678</v>
+        <v>546.7470592459646</v>
       </c>
       <c r="AC3" t="n">
-        <v>344.0827010131962</v>
+        <v>494.5662872758461</v>
       </c>
       <c r="AD3" t="n">
-        <v>278010.4983616403</v>
+        <v>399597.5955593042</v>
       </c>
       <c r="AE3" t="n">
-        <v>380386.2288159678</v>
+        <v>546747.0592459646</v>
       </c>
       <c r="AF3" t="n">
         <v>9.722386363391643e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>25</v>
+        <v>24.66145833333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>344082.7010131962</v>
+        <v>494566.2872758461</v>
       </c>
     </row>
     <row r="4">
@@ -5342,28 +5342,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>278.3183615705679</v>
+        <v>399.9054587682318</v>
       </c>
       <c r="AB4" t="n">
-        <v>380.8074608403887</v>
+        <v>547.1682912703856</v>
       </c>
       <c r="AC4" t="n">
-        <v>344.4637312444092</v>
+        <v>494.9473175070592</v>
       </c>
       <c r="AD4" t="n">
-        <v>278318.3615705679</v>
+        <v>399905.4587682318</v>
       </c>
       <c r="AE4" t="n">
-        <v>380807.4608403887</v>
+        <v>547168.2912703856</v>
       </c>
       <c r="AF4" t="n">
         <v>9.721465900777358e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>25</v>
+        <v>24.66145833333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>344463.7312444092</v>
+        <v>494947.3175070592</v>
       </c>
     </row>
   </sheetData>
@@ -5639,28 +5639,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>347.3687160092651</v>
+        <v>489.5731025176676</v>
       </c>
       <c r="AB2" t="n">
-        <v>475.2852020700559</v>
+        <v>669.8555173056153</v>
       </c>
       <c r="AC2" t="n">
-        <v>429.9246494514597</v>
+        <v>605.92544688209</v>
       </c>
       <c r="AD2" t="n">
-        <v>347368.7160092652</v>
+        <v>489573.1025176676</v>
       </c>
       <c r="AE2" t="n">
-        <v>475285.2020700559</v>
+        <v>669855.5173056154</v>
       </c>
       <c r="AF2" t="n">
         <v>7.178383663185888e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>29</v>
+        <v>28.90625</v>
       </c>
       <c r="AH2" t="n">
-        <v>429924.6494514598</v>
+        <v>605925.4468820899</v>
       </c>
     </row>
     <row r="3">
@@ -5745,28 +5745,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>302.9401519066375</v>
+        <v>426.213563576863</v>
       </c>
       <c r="AB3" t="n">
-        <v>414.4960806149261</v>
+        <v>583.1642009012256</v>
       </c>
       <c r="AC3" t="n">
-        <v>374.9371564299395</v>
+        <v>527.5078280433083</v>
       </c>
       <c r="AD3" t="n">
-        <v>302940.1519066375</v>
+        <v>426213.563576863</v>
       </c>
       <c r="AE3" t="n">
-        <v>414496.0806149261</v>
+        <v>583164.2009012257</v>
       </c>
       <c r="AF3" t="n">
         <v>8.123767879826844e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>26</v>
+        <v>25.546875</v>
       </c>
       <c r="AH3" t="n">
-        <v>374937.1564299396</v>
+        <v>527507.8280433083</v>
       </c>
     </row>
     <row r="4">
@@ -5851,28 +5851,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>287.8498382081105</v>
+        <v>411.0890844595552</v>
       </c>
       <c r="AB4" t="n">
-        <v>393.8488476749465</v>
+        <v>562.4702213279983</v>
       </c>
       <c r="AC4" t="n">
-        <v>356.2604664231782</v>
+        <v>508.788852836367</v>
       </c>
       <c r="AD4" t="n">
-        <v>287849.8382081105</v>
+        <v>411089.0844595552</v>
       </c>
       <c r="AE4" t="n">
-        <v>393848.8476749465</v>
+        <v>562470.2213279983</v>
       </c>
       <c r="AF4" t="n">
         <v>8.397817705864921e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>25</v>
+        <v>24.71354166666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>356260.4664231782</v>
+        <v>508788.852836367</v>
       </c>
     </row>
     <row r="5">
@@ -5957,28 +5957,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>288.0874512520775</v>
+        <v>411.3266975035222</v>
       </c>
       <c r="AB5" t="n">
-        <v>394.1739603244498</v>
+        <v>562.7953339775016</v>
       </c>
       <c r="AC5" t="n">
-        <v>356.5545507777113</v>
+        <v>509.0829371909002</v>
       </c>
       <c r="AD5" t="n">
-        <v>288087.4512520775</v>
+        <v>411326.6975035222</v>
       </c>
       <c r="AE5" t="n">
-        <v>394173.9603244498</v>
+        <v>562795.3339775016</v>
       </c>
       <c r="AF5" t="n">
         <v>8.397817705864921e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>25</v>
+        <v>24.71354166666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>356554.5507777113</v>
+        <v>509082.9371909001</v>
       </c>
     </row>
   </sheetData>
@@ -6254,28 +6254,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>280.9595411537529</v>
+        <v>401.1242174125709</v>
       </c>
       <c r="AB2" t="n">
-        <v>384.4212392667221</v>
+        <v>548.835850615407</v>
       </c>
       <c r="AC2" t="n">
-        <v>347.7326157297034</v>
+        <v>496.4557273286261</v>
       </c>
       <c r="AD2" t="n">
-        <v>280959.5411537529</v>
+        <v>401124.217412571</v>
       </c>
       <c r="AE2" t="n">
-        <v>384421.2392667221</v>
+        <v>548835.850615407</v>
       </c>
       <c r="AF2" t="n">
         <v>1.091564242180361e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>26</v>
+        <v>25.15625</v>
       </c>
       <c r="AH2" t="n">
-        <v>347732.6157297033</v>
+        <v>496455.7273286261</v>
       </c>
     </row>
     <row r="3">
@@ -6360,28 +6360,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>271.069800719892</v>
+        <v>391.3017967864145</v>
       </c>
       <c r="AB3" t="n">
-        <v>370.8896601005585</v>
+        <v>535.3963813800849</v>
       </c>
       <c r="AC3" t="n">
-        <v>335.4924714874677</v>
+        <v>484.2989021747096</v>
       </c>
       <c r="AD3" t="n">
-        <v>271069.800719892</v>
+        <v>391301.7967864145</v>
       </c>
       <c r="AE3" t="n">
-        <v>370889.6601005585</v>
+        <v>535396.3813800849</v>
       </c>
       <c r="AF3" t="n">
         <v>1.100609830464766e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>25</v>
+        <v>24.94791666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>335492.4714874677</v>
+        <v>484298.9021747095</v>
       </c>
     </row>
   </sheetData>
@@ -6657,28 +6657,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>461.3508094524382</v>
+        <v>636.0773606125391</v>
       </c>
       <c r="AB2" t="n">
-        <v>631.2405308540716</v>
+        <v>870.3091065427278</v>
       </c>
       <c r="AC2" t="n">
-        <v>570.9958205410077</v>
+        <v>787.248026900792</v>
       </c>
       <c r="AD2" t="n">
-        <v>461350.8094524381</v>
+        <v>636077.3606125391</v>
       </c>
       <c r="AE2" t="n">
-        <v>631240.5308540716</v>
+        <v>870309.1065427278</v>
       </c>
       <c r="AF2" t="n">
         <v>4.805743793634967e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>35</v>
+        <v>34.86979166666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>570995.8205410077</v>
+        <v>787248.0269007919</v>
       </c>
     </row>
     <row r="3">
@@ -6763,28 +6763,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>369.2687870500998</v>
+        <v>514.8685521137204</v>
       </c>
       <c r="AB3" t="n">
-        <v>505.2498454310718</v>
+        <v>704.4658673994107</v>
       </c>
       <c r="AC3" t="n">
-        <v>457.0295093057413</v>
+        <v>637.2326337388649</v>
       </c>
       <c r="AD3" t="n">
-        <v>369268.7870500998</v>
+        <v>514868.5521137204</v>
       </c>
       <c r="AE3" t="n">
-        <v>505249.8454310718</v>
+        <v>704465.8673994107</v>
       </c>
       <c r="AF3" t="n">
         <v>5.840988449466747e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>29</v>
+        <v>28.69791666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>457029.5093057413</v>
+        <v>637232.6337388649</v>
       </c>
     </row>
     <row r="4">
@@ -6869,28 +6869,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>350.2549635261107</v>
+        <v>476.4378822219351</v>
       </c>
       <c r="AB4" t="n">
-        <v>479.2342932548578</v>
+        <v>651.8833294119726</v>
       </c>
       <c r="AC4" t="n">
-        <v>433.4968449161684</v>
+        <v>589.6684993768922</v>
       </c>
       <c r="AD4" t="n">
-        <v>350254.9635261107</v>
+        <v>476437.8822219351</v>
       </c>
       <c r="AE4" t="n">
-        <v>479234.2932548578</v>
+        <v>651883.3294119725</v>
       </c>
       <c r="AF4" t="n">
         <v>6.203874296065579e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>28</v>
+        <v>27.00520833333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>433496.8449161684</v>
+        <v>589668.4993768922</v>
       </c>
     </row>
     <row r="5">
@@ -6975,28 +6975,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>335.0541377873349</v>
+        <v>461.2028910643784</v>
       </c>
       <c r="AB5" t="n">
-        <v>458.4358528659625</v>
+        <v>631.0381423898295</v>
       </c>
       <c r="AC5" t="n">
-        <v>414.6833784871949</v>
+        <v>570.8127477477389</v>
       </c>
       <c r="AD5" t="n">
-        <v>335054.1377873349</v>
+        <v>461202.8910643784</v>
       </c>
       <c r="AE5" t="n">
-        <v>458435.8528659625</v>
+        <v>631038.1423898295</v>
       </c>
       <c r="AF5" t="n">
         <v>6.405234433325333e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>27</v>
+        <v>26.171875</v>
       </c>
       <c r="AH5" t="n">
-        <v>414683.3784871949</v>
+        <v>570812.7477477388</v>
       </c>
     </row>
     <row r="6">
@@ -7081,28 +7081,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>320.8310379910087</v>
+        <v>447.0471110757566</v>
       </c>
       <c r="AB6" t="n">
-        <v>438.9751802457513</v>
+        <v>611.6695797004598</v>
       </c>
       <c r="AC6" t="n">
-        <v>397.080005148631</v>
+        <v>553.292693497494</v>
       </c>
       <c r="AD6" t="n">
-        <v>320831.0379910087</v>
+        <v>447047.1110757566</v>
       </c>
       <c r="AE6" t="n">
-        <v>438975.1802457513</v>
+        <v>611669.5797004598</v>
       </c>
       <c r="AF6" t="n">
         <v>6.546553340778964e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>26</v>
+        <v>25.59895833333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>397080.005148631</v>
+        <v>553292.6934974941</v>
       </c>
     </row>
     <row r="7">
@@ -7187,28 +7187,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>317.9048898358144</v>
+        <v>444.0194776940771</v>
       </c>
       <c r="AB7" t="n">
-        <v>434.9714952472688</v>
+        <v>607.5270381378881</v>
       </c>
       <c r="AC7" t="n">
-        <v>393.4584262271965</v>
+        <v>549.5455102875605</v>
       </c>
       <c r="AD7" t="n">
-        <v>317904.8898358144</v>
+        <v>444019.4776940771</v>
       </c>
       <c r="AE7" t="n">
-        <v>434971.4952472688</v>
+        <v>607527.0381378881</v>
       </c>
       <c r="AF7" t="n">
         <v>6.622167965668772e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>26</v>
+        <v>25.3125</v>
       </c>
       <c r="AH7" t="n">
-        <v>393458.4262271965</v>
+        <v>549545.5102875605</v>
       </c>
     </row>
     <row r="8">
@@ -7293,28 +7293,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>316.5912384111132</v>
+        <v>442.7058262693758</v>
       </c>
       <c r="AB8" t="n">
-        <v>433.1740994137819</v>
+        <v>605.7296423044012</v>
       </c>
       <c r="AC8" t="n">
-        <v>391.8325713293967</v>
+        <v>547.9196553897606</v>
       </c>
       <c r="AD8" t="n">
-        <v>316591.2384111132</v>
+        <v>442705.8262693759</v>
       </c>
       <c r="AE8" t="n">
-        <v>433174.0994137819</v>
+        <v>605729.6423044011</v>
       </c>
       <c r="AF8" t="n">
         <v>6.658141221254647e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>26</v>
+        <v>25.18229166666667</v>
       </c>
       <c r="AH8" t="n">
-        <v>391832.5713293967</v>
+        <v>547919.6553897606</v>
       </c>
     </row>
   </sheetData>
@@ -7590,28 +7590,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>276.0371973509378</v>
+        <v>395.3994508451231</v>
       </c>
       <c r="AB2" t="n">
-        <v>377.6862713172281</v>
+        <v>541.0029724389485</v>
       </c>
       <c r="AC2" t="n">
-        <v>341.6404236687222</v>
+        <v>489.3704080518152</v>
       </c>
       <c r="AD2" t="n">
-        <v>276037.1973509378</v>
+        <v>395399.4508451231</v>
       </c>
       <c r="AE2" t="n">
-        <v>377686.2713172281</v>
+        <v>541002.9724389485</v>
       </c>
       <c r="AF2" t="n">
         <v>1.185293724937453e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>26</v>
+        <v>25.33854166666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>341640.4236687222</v>
+        <v>489370.4080518152</v>
       </c>
     </row>
   </sheetData>
@@ -7887,28 +7887,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>398.523656047572</v>
+        <v>551.8372713585755</v>
       </c>
       <c r="AB2" t="n">
-        <v>545.2776478271452</v>
+        <v>755.0481000150083</v>
       </c>
       <c r="AC2" t="n">
-        <v>493.237114420507</v>
+        <v>682.9873690662391</v>
       </c>
       <c r="AD2" t="n">
-        <v>398523.656047572</v>
+        <v>551837.2713585756</v>
       </c>
       <c r="AE2" t="n">
-        <v>545277.6478271452</v>
+        <v>755048.1000150084</v>
       </c>
       <c r="AF2" t="n">
         <v>5.975573213733913e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>32</v>
+        <v>31.25</v>
       </c>
       <c r="AH2" t="n">
-        <v>493237.114420507</v>
+        <v>682987.3690662391</v>
       </c>
     </row>
     <row r="3">
@@ -7993,28 +7993,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>328.9524972151995</v>
+        <v>463.1565447667214</v>
       </c>
       <c r="AB3" t="n">
-        <v>450.087319049783</v>
+        <v>633.7112175744937</v>
       </c>
       <c r="AC3" t="n">
-        <v>407.1316170211908</v>
+        <v>573.2307083884631</v>
       </c>
       <c r="AD3" t="n">
-        <v>328952.4972151995</v>
+        <v>463156.5447667214</v>
       </c>
       <c r="AE3" t="n">
-        <v>450087.3190497831</v>
+        <v>633711.2175744937</v>
       </c>
       <c r="AF3" t="n">
         <v>6.942042388907083e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>27</v>
+        <v>26.90104166666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>407131.6170211908</v>
+        <v>573230.7083884631</v>
       </c>
     </row>
     <row r="4">
@@ -8099,28 +8099,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>311.567673436683</v>
+        <v>436.2174426233927</v>
       </c>
       <c r="AB4" t="n">
-        <v>426.3006361917214</v>
+        <v>596.8519495526826</v>
       </c>
       <c r="AC4" t="n">
-        <v>385.6151017902834</v>
+        <v>539.8892371743464</v>
       </c>
       <c r="AD4" t="n">
-        <v>311567.673436683</v>
+        <v>436217.4426233927</v>
       </c>
       <c r="AE4" t="n">
-        <v>426300.6361917214</v>
+        <v>596851.9495526827</v>
       </c>
       <c r="AF4" t="n">
         <v>7.285232882480223e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>26</v>
+        <v>25.625</v>
       </c>
       <c r="AH4" t="n">
-        <v>385615.1017902834</v>
+        <v>539889.2371743463</v>
       </c>
     </row>
     <row r="5">
@@ -8205,19 +8205,19 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>297.0738407847531</v>
+        <v>421.6894445526819</v>
       </c>
       <c r="AB5" t="n">
-        <v>406.4695349345825</v>
+        <v>576.974101662296</v>
       </c>
       <c r="AC5" t="n">
-        <v>367.6766530040003</v>
+        <v>521.9085031878833</v>
       </c>
       <c r="AD5" t="n">
-        <v>297073.8407847531</v>
+        <v>421689.4445526819</v>
       </c>
       <c r="AE5" t="n">
-        <v>406469.5349345825</v>
+        <v>576974.101662296</v>
       </c>
       <c r="AF5" t="n">
         <v>7.466221767933338e-06</v>
@@ -8226,7 +8226,7 @@
         <v>25</v>
       </c>
       <c r="AH5" t="n">
-        <v>367676.6530040004</v>
+        <v>521908.5031878833</v>
       </c>
     </row>
     <row r="6">
@@ -8311,28 +8311,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>296.5453737788221</v>
+        <v>421.1609775467509</v>
       </c>
       <c r="AB6" t="n">
-        <v>405.7464630627488</v>
+        <v>576.2510297904623</v>
       </c>
       <c r="AC6" t="n">
-        <v>367.0225900967768</v>
+        <v>521.2544402806597</v>
       </c>
       <c r="AD6" t="n">
-        <v>296545.3737788221</v>
+        <v>421160.9775467509</v>
       </c>
       <c r="AE6" t="n">
-        <v>405746.4630627488</v>
+        <v>576251.0297904623</v>
       </c>
       <c r="AF6" t="n">
         <v>7.492681711963528e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>25</v>
+        <v>24.921875</v>
       </c>
       <c r="AH6" t="n">
-        <v>367022.5900967768</v>
+        <v>521254.4402806597</v>
       </c>
     </row>
   </sheetData>
@@ -8608,28 +8608,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>423.6904528210801</v>
+        <v>587.7248247706085</v>
       </c>
       <c r="AB2" t="n">
-        <v>579.7119694533728</v>
+        <v>804.1510338404681</v>
       </c>
       <c r="AC2" t="n">
-        <v>524.3850727196015</v>
+        <v>727.4039878037976</v>
       </c>
       <c r="AD2" t="n">
-        <v>423690.4528210801</v>
+        <v>587724.8247706085</v>
       </c>
       <c r="AE2" t="n">
-        <v>579711.9694533729</v>
+        <v>804151.0338404682</v>
       </c>
       <c r="AF2" t="n">
         <v>5.355798957697027e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>33</v>
+        <v>32.91666666666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>524385.0727196014</v>
+        <v>727403.9878037976</v>
       </c>
     </row>
     <row r="3">
@@ -8714,28 +8714,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>348.7581994911653</v>
+        <v>493.4562251550529</v>
       </c>
       <c r="AB3" t="n">
-        <v>477.1863546696767</v>
+        <v>675.1685770093661</v>
       </c>
       <c r="AC3" t="n">
-        <v>431.6443587152571</v>
+        <v>610.7314356246409</v>
       </c>
       <c r="AD3" t="n">
-        <v>348758.1994911653</v>
+        <v>493456.225155053</v>
       </c>
       <c r="AE3" t="n">
-        <v>477186.3546696767</v>
+        <v>675168.5770093661</v>
       </c>
       <c r="AF3" t="n">
         <v>6.35808223246168e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>28</v>
+        <v>27.734375</v>
       </c>
       <c r="AH3" t="n">
-        <v>431644.3587152571</v>
+        <v>610731.4356246409</v>
       </c>
     </row>
     <row r="4">
@@ -8820,28 +8820,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>331.0164055724163</v>
+        <v>456.4132613993011</v>
       </c>
       <c r="AB4" t="n">
-        <v>452.9112495173375</v>
+        <v>624.4847597785231</v>
       </c>
       <c r="AC4" t="n">
-        <v>409.6860355283332</v>
+        <v>564.8848107751252</v>
       </c>
       <c r="AD4" t="n">
-        <v>331016.4055724163</v>
+        <v>456413.2613993011</v>
       </c>
       <c r="AE4" t="n">
-        <v>452911.2495173375</v>
+        <v>624484.7597785231</v>
       </c>
       <c r="AF4" t="n">
         <v>6.706119820173719e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>27</v>
+        <v>26.27604166666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>409686.0355283332</v>
+        <v>564884.8107751252</v>
       </c>
     </row>
     <row r="5">
@@ -8926,28 +8926,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>315.8256749904923</v>
+        <v>441.1883653985964</v>
       </c>
       <c r="AB5" t="n">
-        <v>432.126621767414</v>
+        <v>603.6533853953518</v>
       </c>
       <c r="AC5" t="n">
-        <v>390.885063479454</v>
+        <v>546.0415535260661</v>
       </c>
       <c r="AD5" t="n">
-        <v>315825.6749904923</v>
+        <v>441188.3653985964</v>
       </c>
       <c r="AE5" t="n">
-        <v>432126.621767414</v>
+        <v>603653.3853953518</v>
       </c>
       <c r="AF5" t="n">
         <v>6.922780325476371e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>26</v>
+        <v>25.46875</v>
       </c>
       <c r="AH5" t="n">
-        <v>390885.063479454</v>
+        <v>546041.5535260661</v>
       </c>
     </row>
     <row r="6">
@@ -9032,28 +9032,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>312.3583483602666</v>
+        <v>437.7210387683708</v>
       </c>
       <c r="AB6" t="n">
-        <v>427.3824725042842</v>
+        <v>598.909236132222</v>
       </c>
       <c r="AC6" t="n">
-        <v>386.5936891635421</v>
+        <v>541.7501792101542</v>
       </c>
       <c r="AD6" t="n">
-        <v>312358.3483602666</v>
+        <v>437721.0387683708</v>
       </c>
       <c r="AE6" t="n">
-        <v>427382.4725042842</v>
+        <v>598909.236132222</v>
       </c>
       <c r="AF6" t="n">
         <v>7.019908668215921e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>26</v>
+        <v>25.10416666666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>386593.6891635421</v>
+        <v>541750.1792101542</v>
       </c>
     </row>
     <row r="7">
@@ -9138,19 +9138,19 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>301.5742121748708</v>
+        <v>427.0042223906792</v>
       </c>
       <c r="AB7" t="n">
-        <v>412.6271416129148</v>
+        <v>584.2460151716941</v>
       </c>
       <c r="AC7" t="n">
-        <v>373.2465863432079</v>
+        <v>528.486395478139</v>
       </c>
       <c r="AD7" t="n">
-        <v>301574.2121748708</v>
+        <v>427004.2223906792</v>
       </c>
       <c r="AE7" t="n">
-        <v>412627.1416129148</v>
+        <v>584246.0151716941</v>
       </c>
       <c r="AF7" t="n">
         <v>7.051991479685292e-06</v>
@@ -9159,7 +9159,7 @@
         <v>25</v>
       </c>
       <c r="AH7" t="n">
-        <v>373246.5863432079</v>
+        <v>528486.395478139</v>
       </c>
     </row>
   </sheetData>
@@ -9435,28 +9435,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>498.3070145771066</v>
+        <v>683.7667137169784</v>
       </c>
       <c r="AB2" t="n">
-        <v>681.8056410983457</v>
+        <v>935.5597833659945</v>
       </c>
       <c r="AC2" t="n">
-        <v>616.7350676321462</v>
+        <v>846.2712707079462</v>
       </c>
       <c r="AD2" t="n">
-        <v>498307.0145771066</v>
+        <v>683766.7137169784</v>
       </c>
       <c r="AE2" t="n">
-        <v>681805.6410983457</v>
+        <v>935559.7833659945</v>
       </c>
       <c r="AF2" t="n">
         <v>4.370501783605585e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>37</v>
+        <v>36.66666666666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>616735.0676321462</v>
+        <v>846271.2707079462</v>
       </c>
     </row>
     <row r="3">
@@ -9541,28 +9541,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>390.0748621094802</v>
+        <v>536.5173867610481</v>
       </c>
       <c r="AB3" t="n">
-        <v>533.7176352265657</v>
+        <v>734.0867580430629</v>
       </c>
       <c r="AC3" t="n">
-        <v>482.7803731979471</v>
+        <v>664.0265481526681</v>
       </c>
       <c r="AD3" t="n">
-        <v>390074.8621094802</v>
+        <v>536517.3867610481</v>
       </c>
       <c r="AE3" t="n">
-        <v>533717.6352265656</v>
+        <v>734086.7580430629</v>
       </c>
       <c r="AF3" t="n">
         <v>5.400751700750098e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>30</v>
+        <v>29.66145833333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>482780.3731979472</v>
+        <v>664026.5481526681</v>
       </c>
     </row>
     <row r="4">
@@ -9647,28 +9647,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>358.7993383096281</v>
+        <v>495.4790279844247</v>
       </c>
       <c r="AB4" t="n">
-        <v>490.9250837848778</v>
+        <v>677.9362650802752</v>
       </c>
       <c r="AC4" t="n">
-        <v>444.0718828061309</v>
+        <v>613.234979430537</v>
       </c>
       <c r="AD4" t="n">
-        <v>358799.3383096281</v>
+        <v>495479.0279844247</v>
       </c>
       <c r="AE4" t="n">
-        <v>490925.0837848778</v>
+        <v>677936.2650802752</v>
       </c>
       <c r="AF4" t="n">
         <v>5.810907335466136e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>28</v>
+        <v>27.578125</v>
       </c>
       <c r="AH4" t="n">
-        <v>444071.8828061309</v>
+        <v>613234.979430537</v>
       </c>
     </row>
     <row r="5">
@@ -9753,28 +9753,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>343.5138229898093</v>
+        <v>480.1593472458252</v>
       </c>
       <c r="AB5" t="n">
-        <v>470.0107673749591</v>
+        <v>656.9752020371087</v>
       </c>
       <c r="AC5" t="n">
-        <v>425.1535994009473</v>
+        <v>594.2744108251736</v>
       </c>
       <c r="AD5" t="n">
-        <v>343513.8229898093</v>
+        <v>480159.3472458252</v>
       </c>
       <c r="AE5" t="n">
-        <v>470010.7673749591</v>
+        <v>656975.2020371087</v>
       </c>
       <c r="AF5" t="n">
         <v>6.003371605701923e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>27</v>
+        <v>26.69270833333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>425153.5994009473</v>
+        <v>594274.4108251736</v>
       </c>
     </row>
     <row r="6">
@@ -9859,28 +9859,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>339.180239402714</v>
+        <v>466.029774293035</v>
       </c>
       <c r="AB6" t="n">
-        <v>464.0813671268805</v>
+        <v>637.6424969703367</v>
       </c>
       <c r="AC6" t="n">
-        <v>419.7900927905799</v>
+        <v>576.7867919963522</v>
       </c>
       <c r="AD6" t="n">
-        <v>339180.239402714</v>
+        <v>466029.774293035</v>
       </c>
       <c r="AE6" t="n">
-        <v>464081.3671268805</v>
+        <v>637642.4969703367</v>
       </c>
       <c r="AF6" t="n">
         <v>6.139290267131225e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>27</v>
+        <v>26.09375</v>
       </c>
       <c r="AH6" t="n">
-        <v>419790.0927905799</v>
+        <v>576786.7919963523</v>
       </c>
     </row>
     <row r="7">
@@ -9965,28 +9965,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>326.5257125284698</v>
+        <v>463.1370713657049</v>
       </c>
       <c r="AB7" t="n">
-        <v>446.7668851792153</v>
+        <v>633.6845732081172</v>
       </c>
       <c r="AC7" t="n">
-        <v>404.1280806989718</v>
+        <v>573.2066069230179</v>
       </c>
       <c r="AD7" t="n">
-        <v>326525.7125284698</v>
+        <v>463137.0713657049</v>
       </c>
       <c r="AE7" t="n">
-        <v>446766.8851792152</v>
+        <v>633684.5732081172</v>
       </c>
       <c r="AF7" t="n">
         <v>6.211095191480703e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>26</v>
+        <v>25.80729166666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>404128.0806989718</v>
+        <v>573206.606923018</v>
       </c>
     </row>
     <row r="8">
@@ -10071,28 +10071,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>323.4021687425341</v>
+        <v>450.3190234405595</v>
       </c>
       <c r="AB8" t="n">
-        <v>442.4931147702716</v>
+        <v>616.1463545445692</v>
       </c>
       <c r="AC8" t="n">
-        <v>400.2621929395832</v>
+        <v>557.3422112336747</v>
       </c>
       <c r="AD8" t="n">
-        <v>323402.1687425341</v>
+        <v>450319.0234405595</v>
       </c>
       <c r="AE8" t="n">
-        <v>442493.1147702716</v>
+        <v>616146.3545445693</v>
       </c>
       <c r="AF8" t="n">
         <v>6.281546466870721e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>26</v>
+        <v>25.52083333333333</v>
       </c>
       <c r="AH8" t="n">
-        <v>400262.1929395832</v>
+        <v>557342.2112336747</v>
       </c>
     </row>
     <row r="9">
@@ -10177,28 +10177,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>321.6813325479388</v>
+        <v>448.4967020194791</v>
       </c>
       <c r="AB9" t="n">
-        <v>440.1385907708915</v>
+        <v>613.6529739810999</v>
       </c>
       <c r="AC9" t="n">
-        <v>398.1323814061087</v>
+        <v>555.0867954117012</v>
       </c>
       <c r="AD9" t="n">
-        <v>321681.3325479388</v>
+        <v>448496.7020194791</v>
       </c>
       <c r="AE9" t="n">
-        <v>440138.5907708915</v>
+        <v>613652.9739810999</v>
       </c>
       <c r="AF9" t="n">
         <v>6.314833925373777e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>26</v>
+        <v>25.36458333333333</v>
       </c>
       <c r="AH9" t="n">
-        <v>398132.3814061087</v>
+        <v>555086.7954117012</v>
       </c>
     </row>
   </sheetData>
@@ -10474,28 +10474,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>363.9456288742353</v>
+        <v>506.7417587123263</v>
       </c>
       <c r="AB2" t="n">
-        <v>497.9664655736896</v>
+        <v>693.3464301388019</v>
       </c>
       <c r="AC2" t="n">
-        <v>450.4412449996598</v>
+        <v>627.1744199641803</v>
       </c>
       <c r="AD2" t="n">
-        <v>363945.6288742353</v>
+        <v>506741.7587123262</v>
       </c>
       <c r="AE2" t="n">
-        <v>497966.4655736896</v>
+        <v>693346.4301388019</v>
       </c>
       <c r="AF2" t="n">
         <v>6.746949453905457e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>30</v>
+        <v>29.609375</v>
       </c>
       <c r="AH2" t="n">
-        <v>450441.2449996598</v>
+        <v>627174.4199641803</v>
       </c>
     </row>
     <row r="3">
@@ -10580,28 +10580,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>318.1269247593098</v>
+        <v>441.8162508112842</v>
       </c>
       <c r="AB3" t="n">
-        <v>435.2752932250847</v>
+        <v>604.5124859173407</v>
       </c>
       <c r="AC3" t="n">
-        <v>393.7332301523928</v>
+        <v>546.8186626999915</v>
       </c>
       <c r="AD3" t="n">
-        <v>318126.9247593097</v>
+        <v>441816.2508112842</v>
       </c>
       <c r="AE3" t="n">
-        <v>435275.2932250847</v>
+        <v>604512.4859173406</v>
       </c>
       <c r="AF3" t="n">
         <v>7.677388600279034e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>27</v>
+        <v>26.015625</v>
       </c>
       <c r="AH3" t="n">
-        <v>393733.2301523928</v>
+        <v>546818.6626999915</v>
       </c>
     </row>
     <row r="4">
@@ -10686,28 +10686,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>291.8982037597748</v>
+        <v>415.6206842006728</v>
       </c>
       <c r="AB4" t="n">
-        <v>399.3880000240165</v>
+        <v>568.6705560138662</v>
       </c>
       <c r="AC4" t="n">
-        <v>361.2709698463022</v>
+        <v>514.3974362820401</v>
       </c>
       <c r="AD4" t="n">
-        <v>291898.2037597748</v>
+        <v>415620.6842006728</v>
       </c>
       <c r="AE4" t="n">
-        <v>399388.0000240165</v>
+        <v>568670.5560138662</v>
       </c>
       <c r="AF4" t="n">
         <v>8.023637759943527e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>25</v>
+        <v>24.89583333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>361270.9698463022</v>
+        <v>514397.43628204</v>
       </c>
     </row>
     <row r="5">
@@ -10792,28 +10792,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>290.7316520419018</v>
+        <v>414.4541324827999</v>
       </c>
       <c r="AB5" t="n">
-        <v>397.7918724989933</v>
+        <v>567.074428488843</v>
       </c>
       <c r="AC5" t="n">
-        <v>359.827174492088</v>
+        <v>512.953640927826</v>
       </c>
       <c r="AD5" t="n">
-        <v>290731.6520419018</v>
+        <v>414454.1324827999</v>
       </c>
       <c r="AE5" t="n">
-        <v>397791.8724989933</v>
+        <v>567074.4284888429</v>
       </c>
       <c r="AF5" t="n">
         <v>8.061070101528877e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>25</v>
+        <v>24.79166666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>359827.174492088</v>
+        <v>512953.6409278259</v>
       </c>
     </row>
   </sheetData>
@@ -11089,28 +11089,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>323.0765402230105</v>
+        <v>454.5881221575807</v>
       </c>
       <c r="AB2" t="n">
-        <v>442.0475754641431</v>
+        <v>621.9875237485405</v>
       </c>
       <c r="AC2" t="n">
-        <v>399.8591752795132</v>
+        <v>562.6259074469515</v>
       </c>
       <c r="AD2" t="n">
-        <v>323076.5402230105</v>
+        <v>454588.1221575807</v>
       </c>
       <c r="AE2" t="n">
-        <v>442047.5754641431</v>
+        <v>621987.5237485406</v>
       </c>
       <c r="AF2" t="n">
         <v>8.295891621845525e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>28</v>
+        <v>27.36979166666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>399859.1752795132</v>
+        <v>562625.9074469515</v>
       </c>
     </row>
     <row r="3">
@@ -11195,28 +11195,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>281.9889654478457</v>
+        <v>404.1669338214734</v>
       </c>
       <c r="AB3" t="n">
-        <v>385.8297430008943</v>
+        <v>552.9990294412413</v>
       </c>
       <c r="AC3" t="n">
-        <v>349.0066938443335</v>
+        <v>500.2215782103809</v>
       </c>
       <c r="AD3" t="n">
-        <v>281988.9654478456</v>
+        <v>404166.9338214734</v>
       </c>
       <c r="AE3" t="n">
-        <v>385829.7430008943</v>
+        <v>552999.0294412413</v>
       </c>
       <c r="AF3" t="n">
         <v>9.189630794941788e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>25</v>
+        <v>24.71354166666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>349006.6938443335</v>
+        <v>500221.5782103809</v>
       </c>
     </row>
     <row r="4">
@@ -11301,28 +11301,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>281.8070496469958</v>
+        <v>403.9850180206236</v>
       </c>
       <c r="AB4" t="n">
-        <v>385.5808377766128</v>
+        <v>552.7501242169598</v>
       </c>
       <c r="AC4" t="n">
-        <v>348.7815437853167</v>
+        <v>499.9964281513642</v>
       </c>
       <c r="AD4" t="n">
-        <v>281807.0496469958</v>
+        <v>403985.0180206235</v>
       </c>
       <c r="AE4" t="n">
-        <v>385580.8377766128</v>
+        <v>552750.1242169598</v>
       </c>
       <c r="AF4" t="n">
         <v>9.210650716940052e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>25</v>
+        <v>24.66145833333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>348781.5437853168</v>
+        <v>499996.4281513642</v>
       </c>
     </row>
   </sheetData>
@@ -20179,28 +20179,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>289.1065737941288</v>
+        <v>419.3217868036995</v>
       </c>
       <c r="AB2" t="n">
-        <v>395.5683687469977</v>
+        <v>573.7345678764502</v>
       </c>
       <c r="AC2" t="n">
-        <v>357.8158788174759</v>
+        <v>518.9781459598446</v>
       </c>
       <c r="AD2" t="n">
-        <v>289106.5737941288</v>
+        <v>419321.7868036994</v>
       </c>
       <c r="AE2" t="n">
-        <v>395568.3687469977</v>
+        <v>573734.5678764503</v>
       </c>
       <c r="AF2" t="n">
         <v>9.840778542829286e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>26</v>
+        <v>25.91145833333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>357815.8788174759</v>
+        <v>518978.1459598446</v>
       </c>
     </row>
     <row r="3">
@@ -20285,28 +20285,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>274.7509189394781</v>
+        <v>395.6943299501773</v>
       </c>
       <c r="AB3" t="n">
-        <v>375.9263284480704</v>
+        <v>541.4064390396317</v>
       </c>
       <c r="AC3" t="n">
-        <v>340.0484472769015</v>
+        <v>489.735368366398</v>
       </c>
       <c r="AD3" t="n">
-        <v>274750.9189394781</v>
+        <v>395694.3299501773</v>
       </c>
       <c r="AE3" t="n">
-        <v>375926.3284480704</v>
+        <v>541406.4390396316</v>
       </c>
       <c r="AF3" t="n">
         <v>1.028214724581327e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>25</v>
+        <v>24.81770833333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>340048.4472769015</v>
+        <v>489735.368366398</v>
       </c>
     </row>
   </sheetData>
@@ -20582,28 +20582,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>280.3852301444298</v>
+        <v>398.8482112151817</v>
       </c>
       <c r="AB2" t="n">
-        <v>383.6354416069526</v>
+        <v>545.7217185258322</v>
       </c>
       <c r="AC2" t="n">
-        <v>347.0218134957083</v>
+        <v>493.6388036349685</v>
       </c>
       <c r="AD2" t="n">
-        <v>280385.2301444298</v>
+        <v>398848.2112151817</v>
       </c>
       <c r="AE2" t="n">
-        <v>383635.4416069526</v>
+        <v>545721.7185258322</v>
       </c>
       <c r="AF2" t="n">
         <v>1.296468043526089e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>27</v>
+        <v>26.015625</v>
       </c>
       <c r="AH2" t="n">
-        <v>347021.8134957083</v>
+        <v>493638.8036349685</v>
       </c>
     </row>
   </sheetData>
@@ -20879,28 +20879,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>416.3307343553168</v>
+        <v>570.1903776230874</v>
       </c>
       <c r="AB2" t="n">
-        <v>569.642077960652</v>
+        <v>780.1596296880173</v>
       </c>
       <c r="AC2" t="n">
-        <v>515.2762375377645</v>
+        <v>705.7022895915095</v>
       </c>
       <c r="AD2" t="n">
-        <v>416330.7343553168</v>
+        <v>570190.3776230875</v>
       </c>
       <c r="AE2" t="n">
-        <v>569642.0779606521</v>
+        <v>780159.6296880173</v>
       </c>
       <c r="AF2" t="n">
         <v>5.638407250806833e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>33</v>
+        <v>32.13541666666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>515276.2375377645</v>
+        <v>705702.2895915095</v>
       </c>
     </row>
     <row r="3">
@@ -20985,28 +20985,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>344.0316642045699</v>
+        <v>478.6162716691254</v>
       </c>
       <c r="AB3" t="n">
-        <v>470.7193005705366</v>
+        <v>654.8638979573783</v>
       </c>
       <c r="AC3" t="n">
-        <v>425.7945111827716</v>
+        <v>592.3646066435787</v>
       </c>
       <c r="AD3" t="n">
-        <v>344031.6642045699</v>
+        <v>478616.2716691254</v>
       </c>
       <c r="AE3" t="n">
-        <v>470719.3005705366</v>
+        <v>654863.8979573783</v>
       </c>
       <c r="AF3" t="n">
         <v>6.619214654013824e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>28</v>
+        <v>27.36979166666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>425794.5111827716</v>
+        <v>592364.6066435786</v>
       </c>
     </row>
     <row r="4">
@@ -21091,28 +21091,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>316.5643416739032</v>
+        <v>451.1821035273823</v>
       </c>
       <c r="AB4" t="n">
-        <v>433.1372981113309</v>
+        <v>617.3272587957662</v>
       </c>
       <c r="AC4" t="n">
-        <v>391.7992822916007</v>
+        <v>558.4104116405468</v>
       </c>
       <c r="AD4" t="n">
-        <v>316564.3416739032</v>
+        <v>451182.1035273822</v>
       </c>
       <c r="AE4" t="n">
-        <v>433137.298111331</v>
+        <v>617327.2587957662</v>
       </c>
       <c r="AF4" t="n">
         <v>6.986538962119017e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>26</v>
+        <v>25.9375</v>
       </c>
       <c r="AH4" t="n">
-        <v>391799.2822916007</v>
+        <v>558410.4116405469</v>
       </c>
     </row>
     <row r="5">
@@ -21197,28 +21197,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>311.192099937864</v>
+        <v>436.1562722102024</v>
       </c>
       <c r="AB5" t="n">
-        <v>425.7867599615039</v>
+        <v>596.7682534947076</v>
       </c>
       <c r="AC5" t="n">
-        <v>385.1502691862481</v>
+        <v>539.8135289506762</v>
       </c>
       <c r="AD5" t="n">
-        <v>311192.0999378641</v>
+        <v>436156.2722102024</v>
       </c>
       <c r="AE5" t="n">
-        <v>425786.7599615039</v>
+        <v>596768.2534947075</v>
       </c>
       <c r="AF5" t="n">
         <v>7.195394636356169e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>26</v>
+        <v>25.18229166666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>385150.2691862481</v>
+        <v>539813.5289506762</v>
       </c>
     </row>
     <row r="6">
@@ -21303,28 +21303,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>299.0289340691611</v>
+        <v>424.0604261492037</v>
       </c>
       <c r="AB6" t="n">
-        <v>409.1445798189378</v>
+        <v>580.2181832829829</v>
       </c>
       <c r="AC6" t="n">
-        <v>370.0963953590418</v>
+        <v>524.8429742117889</v>
       </c>
       <c r="AD6" t="n">
-        <v>299028.9340691611</v>
+        <v>424060.4261492037</v>
       </c>
       <c r="AE6" t="n">
-        <v>409144.5798189378</v>
+        <v>580218.1832829829</v>
       </c>
       <c r="AF6" t="n">
         <v>7.264642019183881e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>25</v>
+        <v>24.94791666666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>370096.3953590418</v>
+        <v>524842.974211789</v>
       </c>
     </row>
     <row r="7">
@@ -21409,28 +21409,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>299.3414052630156</v>
+        <v>424.3728973430583</v>
       </c>
       <c r="AB7" t="n">
-        <v>409.5721166916258</v>
+        <v>580.6457201556709</v>
       </c>
       <c r="AC7" t="n">
-        <v>370.4831287126523</v>
+        <v>525.2297075653995</v>
       </c>
       <c r="AD7" t="n">
-        <v>299341.4052630157</v>
+        <v>424372.8973430583</v>
       </c>
       <c r="AE7" t="n">
-        <v>409572.1166916258</v>
+        <v>580645.7201556709</v>
       </c>
       <c r="AF7" t="n">
         <v>7.26130144192184e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>25</v>
+        <v>24.94791666666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>370483.1287126523</v>
+        <v>525229.7075653995</v>
       </c>
     </row>
   </sheetData>
@@ -21706,28 +21706,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>478.9384874248853</v>
+        <v>663.8604036535622</v>
       </c>
       <c r="AB2" t="n">
-        <v>655.3047677695646</v>
+        <v>908.3230917328088</v>
       </c>
       <c r="AC2" t="n">
-        <v>592.7634004596546</v>
+        <v>821.6340106972948</v>
       </c>
       <c r="AD2" t="n">
-        <v>478938.4874248853</v>
+        <v>663860.4036535622</v>
       </c>
       <c r="AE2" t="n">
-        <v>655304.7677695646</v>
+        <v>908323.0917328089</v>
       </c>
       <c r="AF2" t="n">
         <v>4.590624886114695e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>36</v>
+        <v>35.67708333333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>592763.4004596546</v>
+        <v>821634.0106972948</v>
       </c>
     </row>
     <row r="3">
@@ -21812,28 +21812,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>384.5326616723077</v>
+        <v>530.4761083402213</v>
       </c>
       <c r="AB3" t="n">
-        <v>526.1345520837992</v>
+        <v>725.8208143852941</v>
       </c>
       <c r="AC3" t="n">
-        <v>475.9210088674023</v>
+        <v>656.5494945562717</v>
       </c>
       <c r="AD3" t="n">
-        <v>384532.6616723077</v>
+        <v>530476.1083402213</v>
       </c>
       <c r="AE3" t="n">
-        <v>526134.5520837993</v>
+        <v>725820.8143852941</v>
       </c>
       <c r="AF3" t="n">
         <v>5.619882239106368e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>30</v>
+        <v>29.140625</v>
       </c>
       <c r="AH3" t="n">
-        <v>475921.0088674023</v>
+        <v>656549.4945562717</v>
       </c>
     </row>
     <row r="4">
@@ -21918,28 +21918,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>355.1932218008388</v>
+        <v>491.4003396757925</v>
       </c>
       <c r="AB4" t="n">
-        <v>485.99103608692</v>
+        <v>672.3556237973759</v>
       </c>
       <c r="AC4" t="n">
-        <v>439.6087336954866</v>
+        <v>608.1869467191982</v>
       </c>
       <c r="AD4" t="n">
-        <v>355193.2218008388</v>
+        <v>491400.3396757925</v>
       </c>
       <c r="AE4" t="n">
-        <v>485991.03608692</v>
+        <v>672355.6237973758</v>
       </c>
       <c r="AF4" t="n">
         <v>5.977767226940155e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>28</v>
+        <v>27.39583333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>439608.7336954867</v>
+        <v>608186.9467191983</v>
       </c>
     </row>
     <row r="5">
@@ -22024,28 +22024,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>338.8901367169668</v>
+        <v>465.3950912177413</v>
       </c>
       <c r="AB5" t="n">
-        <v>463.6844358338138</v>
+        <v>636.7740955864786</v>
       </c>
       <c r="AC5" t="n">
-        <v>419.4310440630269</v>
+        <v>576.0012696217606</v>
       </c>
       <c r="AD5" t="n">
-        <v>338890.1367169668</v>
+        <v>465395.0912177413</v>
       </c>
       <c r="AE5" t="n">
-        <v>463684.4358338139</v>
+        <v>636774.0955864786</v>
       </c>
       <c r="AF5" t="n">
         <v>6.216923194034145e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>27</v>
+        <v>26.35416666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>419431.0440630269</v>
+        <v>576001.2696217606</v>
       </c>
     </row>
     <row r="6">
@@ -22130,28 +22130,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>325.6376079774302</v>
+        <v>461.8778802413075</v>
       </c>
       <c r="AB6" t="n">
-        <v>445.5517413520752</v>
+        <v>631.9616923601247</v>
       </c>
       <c r="AC6" t="n">
-        <v>403.028908493229</v>
+        <v>571.6481554050797</v>
       </c>
       <c r="AD6" t="n">
-        <v>325637.6079774302</v>
+        <v>461877.8802413075</v>
       </c>
       <c r="AE6" t="n">
-        <v>445551.7413520752</v>
+        <v>631961.6923601248</v>
       </c>
       <c r="AF6" t="n">
         <v>6.320748201047603e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>26</v>
+        <v>25.91145833333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>403028.908493229</v>
+        <v>571648.1554050797</v>
       </c>
     </row>
     <row r="7">
@@ -22236,28 +22236,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>321.6327094288665</v>
+        <v>448.1034985108602</v>
       </c>
       <c r="AB7" t="n">
-        <v>440.0720624742761</v>
+        <v>613.114975593693</v>
       </c>
       <c r="AC7" t="n">
-        <v>398.0722024767493</v>
+        <v>554.600142835303</v>
       </c>
       <c r="AD7" t="n">
-        <v>321632.7094288665</v>
+        <v>448103.4985108602</v>
       </c>
       <c r="AE7" t="n">
-        <v>440072.0624742761</v>
+        <v>613114.975593693</v>
       </c>
       <c r="AF7" t="n">
         <v>6.427906173155981e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>26</v>
+        <v>25.46875</v>
       </c>
       <c r="AH7" t="n">
-        <v>398072.2024767493</v>
+        <v>554600.142835303</v>
       </c>
     </row>
     <row r="8">
@@ -22342,28 +22342,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>319.7343388162362</v>
+        <v>446.20512789823</v>
       </c>
       <c r="AB8" t="n">
-        <v>437.4746280518748</v>
+        <v>610.5175411712918</v>
       </c>
       <c r="AC8" t="n">
-        <v>395.7226635500999</v>
+        <v>552.2506039086535</v>
       </c>
       <c r="AD8" t="n">
-        <v>319734.3388162362</v>
+        <v>446205.12789823</v>
       </c>
       <c r="AE8" t="n">
-        <v>437474.6280518748</v>
+        <v>610517.5411712917</v>
       </c>
       <c r="AF8" t="n">
         <v>6.460544076632652e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>26</v>
+        <v>25.33854166666667</v>
       </c>
       <c r="AH8" t="n">
-        <v>395722.6635500999</v>
+        <v>552250.6039086535</v>
       </c>
     </row>
     <row r="9">
@@ -22448,28 +22448,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>319.8524803305218</v>
+        <v>446.3232694125156</v>
       </c>
       <c r="AB9" t="n">
-        <v>437.6362744837562</v>
+        <v>610.6791876031731</v>
       </c>
       <c r="AC9" t="n">
-        <v>395.8688826733946</v>
+        <v>552.3968230319483</v>
       </c>
       <c r="AD9" t="n">
-        <v>319852.4803305218</v>
+        <v>446323.2694125156</v>
       </c>
       <c r="AE9" t="n">
-        <v>437636.2744837562</v>
+        <v>610679.1876031731</v>
       </c>
       <c r="AF9" t="n">
         <v>6.46092139343585e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>26</v>
+        <v>25.33854166666667</v>
       </c>
       <c r="AH9" t="n">
-        <v>395868.8826733946</v>
+        <v>552396.8230319483</v>
       </c>
     </row>
   </sheetData>
@@ -22745,28 +22745,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>283.6236892147195</v>
+        <v>410.0390602230398</v>
       </c>
       <c r="AB2" t="n">
-        <v>388.066444177654</v>
+        <v>561.0335318437977</v>
       </c>
       <c r="AC2" t="n">
-        <v>351.0299274000131</v>
+        <v>507.4892789801323</v>
       </c>
       <c r="AD2" t="n">
-        <v>283623.6892147196</v>
+        <v>410039.0602230398</v>
       </c>
       <c r="AE2" t="n">
-        <v>388066.444177654</v>
+        <v>561033.5318437978</v>
       </c>
       <c r="AF2" t="n">
         <v>1.433399357435462e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>28</v>
+        <v>27.70833333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>351029.9274000131</v>
+        <v>507489.2789801323</v>
       </c>
     </row>
   </sheetData>
@@ -23042,28 +23042,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>340.1528916635767</v>
+        <v>472.2890819030757</v>
       </c>
       <c r="AB2" t="n">
-        <v>465.4121928605821</v>
+        <v>646.2067577835568</v>
       </c>
       <c r="AC2" t="n">
-        <v>420.9939063840827</v>
+        <v>584.5336917775743</v>
       </c>
       <c r="AD2" t="n">
-        <v>340152.8916635767</v>
+        <v>472289.0819030757</v>
       </c>
       <c r="AE2" t="n">
-        <v>465412.1928605821</v>
+        <v>646206.7577835568</v>
       </c>
       <c r="AF2" t="n">
         <v>7.691311662595411e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>29</v>
+        <v>28.15104166666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>420993.9063840827</v>
+        <v>584533.6917775742</v>
       </c>
     </row>
     <row r="3">
@@ -23148,28 +23148,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>297.2548482066905</v>
+        <v>419.9137651668941</v>
       </c>
       <c r="AB3" t="n">
-        <v>406.717197274761</v>
+        <v>574.5445387892155</v>
       </c>
       <c r="AC3" t="n">
-        <v>367.9006787980285</v>
+        <v>519.7108143854966</v>
       </c>
       <c r="AD3" t="n">
-        <v>297254.8482066905</v>
+        <v>419913.7651668941</v>
       </c>
       <c r="AE3" t="n">
-        <v>406717.197274761</v>
+        <v>574544.5387892155</v>
       </c>
       <c r="AF3" t="n">
         <v>8.619934785990933e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>26</v>
+        <v>25.13020833333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>367900.6787980286</v>
+        <v>519710.8143854967</v>
       </c>
     </row>
     <row r="4">
@@ -23254,28 +23254,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>284.6410532467611</v>
+        <v>407.3672900146692</v>
       </c>
       <c r="AB4" t="n">
-        <v>389.4584465292266</v>
+        <v>557.3778979745225</v>
       </c>
       <c r="AC4" t="n">
-        <v>352.2890790008391</v>
+        <v>504.1825336766263</v>
       </c>
       <c r="AD4" t="n">
-        <v>284641.0532467611</v>
+        <v>407367.2900146692</v>
       </c>
       <c r="AE4" t="n">
-        <v>389458.4465292266</v>
+        <v>557377.8979745226</v>
       </c>
       <c r="AF4" t="n">
         <v>8.796427241686887e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>25</v>
+        <v>24.63541666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>352289.0790008391</v>
+        <v>504182.5336766263</v>
       </c>
     </row>
   </sheetData>
@@ -23551,28 +23551,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>381.5509216632441</v>
+        <v>534.2944382039331</v>
       </c>
       <c r="AB2" t="n">
-        <v>522.0548038583131</v>
+        <v>731.0452217576492</v>
       </c>
       <c r="AC2" t="n">
-        <v>472.230626086594</v>
+        <v>661.2752918215112</v>
       </c>
       <c r="AD2" t="n">
-        <v>381550.9216632441</v>
+        <v>534294.4382039331</v>
       </c>
       <c r="AE2" t="n">
-        <v>522054.8038583131</v>
+        <v>731045.2217576492</v>
       </c>
       <c r="AF2" t="n">
         <v>6.32436489809316e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>31</v>
+        <v>30.49479166666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>472230.6260865941</v>
+        <v>661275.2918215112</v>
       </c>
     </row>
     <row r="3">
@@ -23657,28 +23657,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>323.7146469502871</v>
+        <v>457.4497528192169</v>
       </c>
       <c r="AB3" t="n">
-        <v>442.920661239685</v>
+        <v>625.9029330660261</v>
       </c>
       <c r="AC3" t="n">
-        <v>400.648934974021</v>
+        <v>566.1676355944878</v>
       </c>
       <c r="AD3" t="n">
-        <v>323714.6469502872</v>
+        <v>457449.7528192169</v>
       </c>
       <c r="AE3" t="n">
-        <v>442920.661239685</v>
+        <v>625902.9330660261</v>
       </c>
       <c r="AF3" t="n">
         <v>7.273667658954547e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>27</v>
+        <v>26.51041666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>400648.934974021</v>
+        <v>566167.6355944878</v>
       </c>
     </row>
     <row r="4">
@@ -23763,28 +23763,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>306.9395215633537</v>
+        <v>431.0523596754569</v>
       </c>
       <c r="AB4" t="n">
-        <v>419.9681946189818</v>
+        <v>589.7848551959394</v>
       </c>
       <c r="AC4" t="n">
-        <v>379.8870195536085</v>
+        <v>533.4966163842814</v>
       </c>
       <c r="AD4" t="n">
-        <v>306939.5215633537</v>
+        <v>431052.3596754569</v>
       </c>
       <c r="AE4" t="n">
-        <v>419968.1946189818</v>
+        <v>589784.8551959394</v>
       </c>
       <c r="AF4" t="n">
         <v>7.625675462229175e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>26</v>
+        <v>25.28645833333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>379887.0195536085</v>
+        <v>533496.6163842814</v>
       </c>
     </row>
     <row r="5">
@@ -23869,28 +23869,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>293.6220102246641</v>
+        <v>417.8021681444717</v>
       </c>
       <c r="AB5" t="n">
-        <v>401.746588078252</v>
+        <v>571.6553585860512</v>
       </c>
       <c r="AC5" t="n">
-        <v>363.4044575669404</v>
+        <v>517.0973734859325</v>
       </c>
       <c r="AD5" t="n">
-        <v>293622.0102246641</v>
+        <v>417802.1681444717</v>
       </c>
       <c r="AE5" t="n">
-        <v>401746.588078252</v>
+        <v>571655.3585860512</v>
       </c>
       <c r="AF5" t="n">
         <v>7.759946479973104e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>25</v>
+        <v>24.84375</v>
       </c>
       <c r="AH5" t="n">
-        <v>363404.4575669405</v>
+        <v>517097.3734859325</v>
       </c>
     </row>
     <row r="6">
@@ -23975,28 +23975,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>293.8327136861197</v>
+        <v>418.0128716059273</v>
       </c>
       <c r="AB6" t="n">
-        <v>402.0348818497964</v>
+        <v>571.9436523575955</v>
       </c>
       <c r="AC6" t="n">
-        <v>363.6652369855515</v>
+        <v>517.3581529045435</v>
       </c>
       <c r="AD6" t="n">
-        <v>293832.7136861198</v>
+        <v>418012.8716059274</v>
       </c>
       <c r="AE6" t="n">
-        <v>402034.8818497964</v>
+        <v>571943.6523575955</v>
       </c>
       <c r="AF6" t="n">
         <v>7.759502119186307e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>25</v>
+        <v>24.84375</v>
       </c>
       <c r="AH6" t="n">
-        <v>363665.2369855515</v>
+        <v>517358.1529045436</v>
       </c>
     </row>
   </sheetData>
